--- a/3.Ky-thuat-xu-ly-mang/3.Su-dung-Class-Arrays.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/3.Su-dung-Class-Arrays.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9923416E-1886-4A95-B3EC-9E266C2CB7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE0E44-BC10-485E-B82A-6E2B6DF7A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CopyOf" sheetId="1" r:id="rId1"/>
+    <sheet name="ToString" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -863,6 +864,490 @@
         <scheme val="minor"/>
       </rPr>
       <t>c là 3-1=2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>study003();</t>
+  </si>
+  <si>
+    <t>// 003 In mảng</t>
+  </si>
+  <si>
+    <t>public static void study003(){</t>
+  </si>
+  <si>
+    <t>System.out.println("----------------------");</t>
+  </si>
+  <si>
+    <t>int length</t>
+  </si>
+  <si>
+    <t>= arrString.length;</t>
+  </si>
+  <si>
+    <t>for(int i = 0; i &lt; length; i++){</t>
+  </si>
+  <si>
+    <t>System.out.printf("Phần tử thứ %d: %s %n", i, arrString[i]);</t>
+  </si>
+  <si>
+    <t>for(String str : arrString){</t>
+  </si>
+  <si>
+    <t>System.out.println(str);</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>//  PT 1 (0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Dùng vòng l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in ra các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Dùng vòng l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for-each</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in ra các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System.out.println(Arrays.toString(arrString));</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Dùng Arrays.toString() đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> string r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i in ra màn hình đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xem thông tin c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -966,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1539,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1070,12 +1635,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1272,6 +1843,99 @@
         <a:xfrm>
           <a:off x="774700" y="26403300"/>
           <a:ext cx="7344026" cy="4483100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190874</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>656324</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>65900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836327D8-A1C9-3D19-BA79-5242E1A97818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848286" y="16607492"/>
+          <a:ext cx="11641450" cy="4764526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>399491</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>94508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF733A3-7765-FEB8-1508-AF5368E7A974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="821765" y="22299707"/>
+          <a:ext cx="7466667" cy="7438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1604,7 +2268,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="4"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5"/>
@@ -1630,16 +2294,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2"/>
@@ -1664,26 +2320,9 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20">
@@ -1702,34 +2341,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20">
@@ -1737,45 +2354,13 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20">
@@ -1783,467 +2368,226 @@
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="12"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="12"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="12"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="12"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="12" t="s">
+      <c r="N29" t="s">
         <v>7</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="12"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="12" t="s">
+      <c r="N30" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O30" t="s">
         <v>36</v>
       </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="12"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="12"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="12" t="s">
+      <c r="N32" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" t="s">
         <v>37</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
+      <c r="G33" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="12"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15" t="s">
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="12"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="12"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
+      <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="12"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="12"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="12"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20">
@@ -2251,23 +2595,7 @@
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20">
@@ -2284,61 +2612,19 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="4"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="2"/>
@@ -2363,594 +2649,162 @@
     <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
     </row>
@@ -2999,7 +2853,7 @@
       <c r="T72" s="10"/>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B75" s="2"/>
@@ -3039,32 +2893,12 @@
       <c r="B77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
@@ -3073,32 +2907,12 @@
       <c r="B79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
@@ -3107,210 +2921,117 @@
       <c r="B81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="12" t="s">
+      <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="12" t="s">
+      <c r="C85" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
+      <c r="F89" s="7"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5" t="s">
         <v>7</v>
@@ -3322,332 +3043,186 @@
     <row r="93" spans="1:15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="12" t="s">
+      <c r="C98" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="12" t="s">
+      <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12" t="s">
+      <c r="E100" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12" t="s">
+      <c r="D101" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12" t="s">
+      <c r="D102" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12" t="s">
+      <c r="F102" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12" t="s">
+      <c r="D104" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12" t="s">
+      <c r="F104" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="12" t="s">
+      <c r="G104" t="s">
         <v>47</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12" t="s">
+      <c r="D105" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12" t="s">
+      <c r="G105" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12" t="s">
+      <c r="D106" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12" t="s">
+      <c r="G106" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12" t="s">
+      <c r="D107" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12" t="s">
+      <c r="D108" t="s">
         <v>29</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12" t="s">
+      <c r="D109" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="12" t="s">
+      <c r="C110" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
@@ -3656,16 +3231,6 @@
       <c r="B111" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
@@ -3687,39 +3252,15 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
       <c r="N113" s="5"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
       <c r="N114" s="5"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="4"/>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C115" s="2"/>
@@ -3738,320 +3279,120 @@
     <row r="116" spans="1:14">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
@@ -4092,4 +3433,2469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF07D80-18BF-4F40-B840-817036873664}">
+  <dimension ref="A3:T129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:20">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="4"/>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="18.5" thickBot="1"/>
+    <row r="14" spans="1:20" ht="18.5" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="17"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="17"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16">
+        <v>2</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17">
+        <v>3</v>
+      </c>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="17"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="17"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="17"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="17"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="17"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="17"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="17"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="17"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="17"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="17"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="17"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="17"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="17"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="17"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="17"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="17"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="17"/>
+    </row>
+    <row r="70" spans="1:20" ht="18.5" thickBot="1">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="17"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="17"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="17"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="17"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="17"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="17"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="17"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="17"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="17"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="17"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="17"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="17"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="17"/>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="17"/>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="17"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="17"/>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="17"/>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="17"/>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="17"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="17"/>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="17"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="17"/>
+    </row>
+    <row r="93" spans="1:20" ht="18.5" thickBot="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="20"/>
+    </row>
+    <row r="95" spans="1:20" ht="18.5" thickBot="1"/>
+    <row r="96" spans="1:20">
+      <c r="B96" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="15"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="15"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="17"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="15"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="15"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="15"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="15"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" s="15"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" s="15"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" s="15"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="B115" s="15"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="B116" s="15"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" s="15"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="15"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="15"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="15"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="15"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="15"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="15"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="15"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="15"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="17"/>
+    </row>
+    <row r="129" spans="2:13" ht="18.5" thickBot="1">
+      <c r="B129" s="18"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.Ky-thuat-xu-ly-mang/3.Su-dung-Class-Arrays.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/3.Su-dung-Class-Arrays.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE0E44-BC10-485E-B82A-6E2B6DF7A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480EEED-DC66-4F57-B045-56BF2D3B3419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CopyOf" sheetId="1" r:id="rId1"/>
     <sheet name="ToString" sheetId="2" r:id="rId2"/>
+    <sheet name="sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -902,12 +903,6 @@
     <t>System.out.println(str);</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>//  PT 1 (0)</t>
-  </si>
-  <si>
     <r>
       <t>Dùng vòng l</t>
     </r>
@@ -1348,6 +1343,629 @@
         <scheme val="minor"/>
       </rPr>
       <t>ng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>        study004();</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // 004 Sort</t>
+  </si>
+  <si>
+    <t>    public static void study004(){</t>
+  </si>
+  <si>
+    <t>        int arrInt[] = { 30, 31, 24, 36, 34, 27, 28 };</t>
+  </si>
+  <si>
+    <t>        System.out.println("Input: " + Arrays.toString(arrInt));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        // Tăng dần</t>
+  </si>
+  <si>
+    <t>        Arrays.sort(arrInt);</t>
+  </si>
+  <si>
+    <t>        System.out.println("Output: " + Arrays.toString(arrInt));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Giảm dần </t>
+  </si>
+  <si>
+    <t>        int length  = arrInt.length;</t>
+  </si>
+  <si>
+    <t>        for(int i = 0; i &lt; length/2; i++){</t>
+  </si>
+  <si>
+    <t>            int elmTmp  = arrInt[i];</t>
+  </si>
+  <si>
+    <t>            arrInt[i]   = arrInt[length - 1 - i];</t>
+  </si>
+  <si>
+    <t>            arrInt[length - 1 - i]  = elmTmp;</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    // 003 In mảng</t>
+  </si>
+  <si>
+    <t>    public static void study003(){</t>
+  </si>
+  <si>
+    <t>        String arrString[]  = { "Zend 2", "PHP", "Java", "Javascript" };</t>
+  </si>
+  <si>
+    <t>        System.out.println("----------------------");</t>
+  </si>
+  <si>
+    <t>        int length  = arrString.length;</t>
+  </si>
+  <si>
+    <t>        for(int i = 0; i &lt; length; i++){</t>
+  </si>
+  <si>
+    <t>            System.out.printf("Phần tử thứ %d: %s %n", i, arrString[i]);</t>
+  </si>
+  <si>
+    <t>        for(String str : arrString){</t>
+  </si>
+  <si>
+    <t>            System.out.println(str);</t>
+  </si>
+  <si>
+    <t>        System.out.println(Arrays.toString(arrString));</t>
+  </si>
+  <si>
+    <t>    // 002 Sao chép mảng - copyOfRange</t>
+  </si>
+  <si>
+    <t>    public static void study002(){</t>
+  </si>
+  <si>
+    <t>                            //  0           1       2       3</t>
+  </si>
+  <si>
+    <t>        String newArr[]     = Arrays.copyOfRange(arrString, 1, 3);</t>
+  </si>
+  <si>
+    <t>        System.out.println(newArr.length);</t>
+  </si>
+  <si>
+    <t>        System.out.println(newArr[0]);</t>
+  </si>
+  <si>
+    <t>        System.out.println(newArr[1]);</t>
+  </si>
+  <si>
+    <t>    // 001 Sao chép mảng - copyOf</t>
+  </si>
+  <si>
+    <t>    public static void study001(){</t>
+  </si>
+  <si>
+    <t>                            //  PT 1 (0)    (1)     (2)</t>
+  </si>
+  <si>
+    <t>        arrString[0]        = "Android";</t>
+  </si>
+  <si>
+    <t>        String newArr[]     = Arrays.copyOf(arrString, 6);  // { "Android", "PHP", "Java", "Javascript", null, null }</t>
+  </si>
+  <si>
+    <t>        newArr[4]           = "Android";</t>
+  </si>
+  <si>
+    <t>        newArr[5]           = "IOS";</t>
+  </si>
+  <si>
+    <t>        System.out.println(newArr[4]);</t>
+  </si>
+  <si>
+    <t>        System.out.println(newArr[5]);</t>
+  </si>
+  <si>
+    <r>
+      <t>In ra các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đó</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>sort() đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tăng d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Sau khi th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n tăng d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n hành </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ảng giả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>m d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -1623,7 +2241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1640,13 +2258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1947,6 +2566,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>213178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508763</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>33411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A1E434-1C73-6DA7-E53A-D73FFBC11EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367392" y="20877892"/>
+          <a:ext cx="12061228" cy="4809519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>567440</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>91274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B3F17C-23F1-900B-5C89-E82F543A68D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755650" y="26854150"/>
+          <a:ext cx="7076190" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373528</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390327</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE47756-5A70-8634-6308-F6B62099BC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8262469" y="3530529"/>
+          <a:ext cx="6590917" cy="2137700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2212,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A81" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2436,9 +3192,8 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="E28" t="s">
-        <v>31</v>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -3439,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF07D80-18BF-4F40-B840-817036873664}">
   <dimension ref="A3:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3561,1862 +4316,726 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
+      <c r="L18" s="16"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="17"/>
+      <c r="L19" s="16"/>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
+      <c r="L20" s="16"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
+      <c r="L21" s="16"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
+      <c r="L22" s="16"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="16" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
+      <c r="L23" s="16"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="17"/>
+      <c r="L24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="L25" s="16"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="L26" s="16"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="17"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="L27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="17"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="L28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="17"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="L29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="17"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="L30" s="16"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="16" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="L31" s="16"/>
+      <c r="M31" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="17"/>
+      <c r="N31" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="17"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="L32" s="16"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="17"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="L33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="17"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="L34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="17"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="L35" s="16"/>
+      <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="16" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="L36" s="16"/>
+      <c r="M36" t="s">
         <v>7</v>
       </c>
-      <c r="N36" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="17"/>
+      <c r="N36" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="17"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="L37" s="16"/>
+      <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="L38" s="16"/>
+      <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="17"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="L39" s="16"/>
+      <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="17"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="L40" s="16"/>
+      <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="16" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="L41" s="16"/>
+      <c r="M41" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="17"/>
+      <c r="N41" t="s">
+        <v>64</v>
+      </c>
+      <c r="T41" s="16"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="17"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="L42" s="16"/>
+      <c r="T42" s="16"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="17"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="L43" s="16"/>
+      <c r="T43" s="16"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="17"/>
+      <c r="L44" s="16"/>
+      <c r="T44" s="16"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="16" t="s">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="17"/>
+      <c r="L45" s="16"/>
+      <c r="T45" s="16"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="17"/>
+      <c r="L46" s="16"/>
+      <c r="T46" s="16"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="16">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16">
-        <v>1</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
-        <v>2</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="17">
-        <v>3</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="17"/>
+      <c r="B47" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="T47" s="16"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16" t="s">
+      <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="17"/>
+      <c r="L48" s="16"/>
+      <c r="T48" s="16"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="17"/>
+      <c r="L49" s="16"/>
+      <c r="T49" s="16"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="D50" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16" t="s">
+      <c r="F50" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="17"/>
+      <c r="L50" s="16"/>
+      <c r="T50" s="16"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="D51" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="T51" s="16"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="17"/>
+      <c r="L52" s="16"/>
+      <c r="T52" s="16"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
+      <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="17"/>
+      <c r="L53" s="16"/>
+      <c r="T53" s="16"/>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="16" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="17"/>
+      <c r="L54" s="16"/>
+      <c r="T54" s="16"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="17"/>
+      <c r="L55" s="16"/>
+      <c r="T55" s="16"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="16" t="s">
+      <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="17"/>
+      <c r="L56" s="16"/>
+      <c r="T56" s="16"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="16" t="s">
+      <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="17"/>
+      <c r="L57" s="16"/>
+      <c r="T57" s="16"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16">
-        <v>-2</v>
-      </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="17"/>
+      <c r="B58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="T58" s="16"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16" t="s">
+      <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="17"/>
+      <c r="L59" s="16"/>
+      <c r="T59" s="16"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16" t="s">
+      <c r="D60" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
+      <c r="F60" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="17"/>
+      <c r="L60" s="16"/>
+      <c r="T60" s="16"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="17"/>
+      <c r="L61" s="16"/>
+      <c r="T61" s="16"/>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16" t="s">
+      <c r="D62" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16" t="s">
+      <c r="F62" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="17"/>
+      <c r="L62" s="16"/>
+      <c r="T62" s="16"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16" t="s">
+      <c r="D63" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
+      <c r="G63" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="17"/>
+      <c r="L63" s="16"/>
+      <c r="T63" s="16"/>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16" t="s">
+      <c r="D64" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16" t="s">
+      <c r="G64" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="17"/>
+      <c r="L64" s="16"/>
+      <c r="T64" s="16"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16" t="s">
+      <c r="D65" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="17"/>
+      <c r="L65" s="16"/>
+      <c r="T65" s="16"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16" t="s">
+      <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="17"/>
+      <c r="L66" s="16"/>
+      <c r="T66" s="16"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
+      <c r="D67" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="17"/>
+      <c r="L67" s="16"/>
+      <c r="T67" s="16"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="16" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="17"/>
+      <c r="L68" s="16"/>
+      <c r="T68" s="16"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="17"/>
+      <c r="L69" s="16"/>
+      <c r="T69" s="16"/>
     </row>
     <row r="70" spans="1:20" ht="18.5" thickBot="1">
       <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="19"/>
+      <c r="T70" s="16"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="17"/>
+      <c r="T71" s="16"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="17"/>
+      <c r="T72" s="16"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="17"/>
+      <c r="T73" s="16"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="17"/>
+      <c r="T74" s="16"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="17"/>
+      <c r="T75" s="16"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="17"/>
+      <c r="T76" s="16"/>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="17"/>
+      <c r="T77" s="16"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="17"/>
+      <c r="T78" s="16"/>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="17"/>
+      <c r="T79" s="16"/>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="17"/>
+      <c r="T80" s="16"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="17"/>
+      <c r="T81" s="16"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="17"/>
+      <c r="T82" s="16"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="17"/>
+      <c r="T83" s="16"/>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="17"/>
+      <c r="T84" s="16"/>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="17"/>
+      <c r="T85" s="16"/>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="17"/>
+      <c r="T86" s="16"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="17"/>
+      <c r="T87" s="16"/>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="17"/>
+      <c r="T88" s="16"/>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="17"/>
+      <c r="T89" s="16"/>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="17"/>
+      <c r="T90" s="16"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="17"/>
+      <c r="T91" s="16"/>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="17"/>
+      <c r="T92" s="16"/>
     </row>
     <row r="93" spans="1:20" ht="18.5" thickBot="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="20"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="19"/>
     </row>
     <row r="95" spans="1:20" ht="18.5" thickBot="1"/>
     <row r="96" spans="1:20">
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C96" s="13"/>
@@ -5433,465 +5052,2909 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="17"/>
+      <c r="M97" s="16"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="15"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="17"/>
+      <c r="M98" s="16"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="15"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="17"/>
+      <c r="M99" s="16"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="15"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="17"/>
+      <c r="M100" s="16"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="17"/>
+      <c r="M101" s="16"/>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="17"/>
+      <c r="M102" s="16"/>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="15"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="17"/>
+      <c r="M103" s="16"/>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="15"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="17"/>
+      <c r="M104" s="16"/>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="15"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="17"/>
+      <c r="M105" s="16"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="15"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="17"/>
+      <c r="M106" s="16"/>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="17"/>
+      <c r="M107" s="16"/>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="15"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="17"/>
+      <c r="M108" s="16"/>
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="15"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="17"/>
+      <c r="M109" s="16"/>
     </row>
     <row r="110" spans="2:13">
       <c r="B110" s="15"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="17"/>
+      <c r="M110" s="16"/>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" s="15"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
+      <c r="M111" s="16"/>
     </row>
     <row r="112" spans="2:13">
       <c r="B112" s="15"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="17"/>
+      <c r="M112" s="16"/>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="15"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="17"/>
+      <c r="M113" s="16"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="15"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="17"/>
+      <c r="M114" s="16"/>
     </row>
     <row r="115" spans="2:13">
       <c r="B115" s="15"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="17"/>
+      <c r="M115" s="16"/>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="15"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="17"/>
+      <c r="M116" s="16"/>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="15"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="17"/>
+      <c r="M117" s="16"/>
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="15"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="17"/>
+      <c r="M118" s="16"/>
     </row>
     <row r="119" spans="2:13">
       <c r="B119" s="15"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="17"/>
+      <c r="M119" s="16"/>
     </row>
     <row r="120" spans="2:13">
       <c r="B120" s="15"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="17"/>
+      <c r="M120" s="16"/>
     </row>
     <row r="121" spans="2:13">
       <c r="B121" s="15"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="17"/>
+      <c r="M121" s="16"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="15"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="17"/>
+      <c r="M122" s="16"/>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="15"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="17"/>
+      <c r="M123" s="16"/>
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="15"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="17"/>
+      <c r="M124" s="16"/>
     </row>
     <row r="125" spans="2:13">
       <c r="B125" s="15"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="17"/>
+      <c r="M125" s="16"/>
     </row>
     <row r="126" spans="2:13">
       <c r="B126" s="15"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="17"/>
+      <c r="M126" s="16"/>
     </row>
     <row r="127" spans="2:13">
       <c r="B127" s="15"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="17"/>
+      <c r="M127" s="16"/>
     </row>
     <row r="128" spans="2:13">
       <c r="B128" s="15"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
+      <c r="M128" s="16"/>
+    </row>
+    <row r="129" spans="2:13" ht="18.5" thickBot="1">
+      <c r="B129" s="17"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F25CDC-4EC8-496E-A9A0-09A413959FB3}">
+  <dimension ref="A3:S146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="4"/>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.5" thickBot="1"/>
+    <row r="14" spans="1:19" ht="18.5" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="15"/>
+      <c r="B22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="16"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="15"/>
+      <c r="B26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="16"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="16"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="15"/>
+      <c r="B28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="16"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="15"/>
+      <c r="B29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="15"/>
+      <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="15"/>
+      <c r="B31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="15"/>
+      <c r="B32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="16"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="16"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="15"/>
+      <c r="B33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="16"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="15"/>
+      <c r="B34" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="15"/>
+      <c r="B35" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="15"/>
+      <c r="B36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="15"/>
+      <c r="B37" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="15"/>
+      <c r="B38" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="16"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="15"/>
+      <c r="B39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="15"/>
+      <c r="B40" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="16"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="15"/>
+      <c r="B41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="16"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="16"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="15"/>
+      <c r="B42" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="15"/>
+      <c r="B43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="16"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="16"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="16"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="16"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="16"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="16"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="16"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="16"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="16"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="16"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="16"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="16"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="16"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="16"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="16"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="16"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="16"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="16"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="16"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="16"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="16"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="16"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="16"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="16"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="16"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="16"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="16"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="16"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="16"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="16"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="16"/>
+    </row>
+    <row r="90" spans="1:19" ht="18.5" thickBot="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="16"/>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="15"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="16"/>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="15"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="16"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="15"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="16"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="15"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="16"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="15"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="16"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="15"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="15"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="15"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="15"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="15"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="15"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="15"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="16"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="15"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="16"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="15"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="15"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="15"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="15"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="15"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21"/>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="15"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="15"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="15"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="15"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="15"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" spans="1:19" ht="18.5" thickBot="1">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="19"/>
+    </row>
+    <row r="116" spans="1:19" ht="18.5" thickBot="1"/>
+    <row r="117" spans="1:19">
+      <c r="B117" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="14"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="B118" s="15"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="16"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="B119" s="15"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="16"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="B120" s="15"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="16"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="B121" s="15"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="16"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="B122" s="15"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="16"/>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="B123" s="15"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="16"/>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="B124" s="15"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="16"/>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="B125" s="15"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="16"/>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="B126" s="15"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="16"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="B127" s="15"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="16"/>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="B128" s="15"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
       <c r="L128" s="16"/>
-      <c r="M128" s="17"/>
-    </row>
-    <row r="129" spans="2:13" ht="18.5" thickBot="1">
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="20"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="15"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="16"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="15"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="16"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="15"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="16"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="15"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="16"/>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133" s="15"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="16"/>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134" s="15"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="16"/>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135" s="15"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="16"/>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136" s="15"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="16"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="15"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="16"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="15"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="16"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139" s="15"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="16"/>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" s="15"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="16"/>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141" s="15"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="16"/>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="15"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="16"/>
+    </row>
+    <row r="143" spans="2:12">
+      <c r="B143" s="15"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="16"/>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144" s="15"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="16"/>
+    </row>
+    <row r="145" spans="2:12">
+      <c r="B145" s="15"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="16"/>
+    </row>
+    <row r="146" spans="2:12" ht="18.5" thickBot="1">
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
